--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -133,7 +133,7 @@
     <comment ref="M1" authorId="1">
       <text>
         <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
+dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
 internal metadata field that is just used for ingest.</t>
       </text>
     </comment>
@@ -143,8 +143,8 @@
 a single dataset upload this might be "." where as for a data upload containing
 multiple datasets, this would be the directory name for the respective dataset.
 For instance, if the data is within a directory called "TEST001-RK" use syntax
-"/TEST001-RK/" for this field. If there are multiple directory levels, use the
-format "/TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
+"./TEST001-RK" for this field. If there are multiple directory levels, use the
+format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
 single dataset's data is stored. This is an internal metadata field that is just
 used for ingest.</t>
       </text>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="343">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -619,6 +619,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -790,18 +796,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -820,6 +832,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -862,36 +886,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -1027,45 +1033,45 @@
     <t>barcode_read</t>
   </si>
   <si>
-    <t>Read 1</t>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
+    <t>Read 2 (R2)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
+  </si>
+  <si>
+    <t>barcode_size</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>umi_offset</t>
+  </si>
+  <si>
+    <t>umi_read</t>
+  </si>
+  <si>
+    <t>Read 1 (R1)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
   </si>
   <si>
-    <t>Read 2</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
-    <t>barcode_size</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>umi_offset</t>
-  </si>
-  <si>
-    <t>umi_read</t>
-  </si>
-  <si>
     <t>umi_size</t>
   </si>
   <si>
@@ -1396,7 +1402,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-05T09:35:33-07:00</t>
+    <t>2023-10-06T19:20:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1589,37 +1595,37 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q1" t="s" s="1">
         <v>220</v>
@@ -1631,93 +1637,93 @@
         <v>227</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1732,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1755,7 +1761,7 @@
       <formula1>'barcode_offset'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_read'!$A$1:$A$3</formula1>
+      <formula1>'barcode_read'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
@@ -1848,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,25 +1862,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1903,7 +1901,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
@@ -1936,7 +1934,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
@@ -1959,23 +1957,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>219</v>
@@ -1996,27 +1994,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2034,42 +2032,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2087,10 +2085,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2108,10 +2106,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2129,10 +2127,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2150,18 +2148,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2480,50 +2478,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2541,26 +2539,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2578,12 +2576,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2601,50 +2599,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2662,26 +2660,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2702,23 +2700,23 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2736,42 +2734,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2789,98 +2787,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2898,18 +2896,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2933,30 +2931,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3050,6 +3048,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3067,12 +3073,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3090,114 +3096,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3215,258 +3221,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3484,42 +3490,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3537,26 +3543,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3574,17 +3580,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="370">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -802,12 +802,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -940,6 +952,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -1021,6 +1045,9 @@
     <t>barcode_offset</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -1033,6 +1060,12 @@
     <t>barcode_read</t>
   </si>
   <si>
+    <t>Read 1 (R1)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
+  </si>
+  <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
   </si>
   <si>
@@ -1066,12 +1099,6 @@
     <t>umi_read</t>
   </si>
   <si>
-    <t>Read 1 (R1)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
-  </si>
-  <si>
     <t>umi_size</t>
   </si>
   <si>
@@ -1195,18 +1222,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
   </si>
   <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
-    <t>Custom kit</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
   </si>
   <si>
@@ -1216,18 +1243,24 @@
     <t>sample_indexing_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
+  </si>
+  <si>
+    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
+  </si>
+  <si>
     <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
   </si>
   <si>
-    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
-  </si>
-  <si>
     <t>sample_indexing_set</t>
   </si>
   <si>
@@ -1240,6 +1273,36 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
   </si>
   <si>
@@ -1252,16 +1315,22 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
   </si>
   <si>
     <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
@@ -1309,18 +1378,18 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>HTX Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023734</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>HTX Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023734</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1330,16 +1399,34 @@
     <t>preparation_instrument_model</t>
   </si>
   <si>
+    <t>Sublimator</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023729</t>
+  </si>
+  <si>
+    <t>Chromium Controller</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019326</t>
+  </si>
+  <si>
     <t>Chromium X</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024537</t>
   </si>
   <si>
-    <t>Sublimator</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023729</t>
+    <t>AutoStainer XL</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023957</t>
+  </si>
+  <si>
+    <t>Visium CytAssist</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024570</t>
   </si>
   <si>
     <t>SunCollect Sprayer</t>
@@ -1354,12 +1441,6 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
-    <t>Chromium Controller</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_019326</t>
-  </si>
-  <si>
     <t>Chromium iX</t>
   </si>
   <si>
@@ -1402,7 +1483,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:20:18-07:00</t>
+    <t>2023-10-16T20:49:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1604,126 +1685,126 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>333</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1822,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1758,10 +1839,10 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$3</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_read'!$A$1:$A$2</formula1>
+      <formula1>'barcode_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
@@ -1818,7 +1899,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AH2:AH1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$3</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -1828,7 +1909,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AL2:AL1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$6</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AN2:AN1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'transposition_reagent_kit'!$A$1:$A$3</formula1>
@@ -1837,10 +1918,10 @@
       <formula1>'transposition_method'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AR2:AR1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$5</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$12</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_kit'!$A$1:$A$2</formula1>
@@ -1854,7 +1935,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1862,18 +1943,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1891,32 +1980,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1934,12 +2023,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1957,26 +2046,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1994,27 +2083,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2032,42 +2121,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2085,10 +2174,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2106,10 +2195,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2127,10 +2216,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2148,18 +2237,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2478,50 +2567,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2620,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2539,26 +2628,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2688,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2599,50 +2696,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2660,26 +2805,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2700,23 +2845,23 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +2871,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2734,42 +2879,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2940,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2787,98 +2948,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2896,18 +3073,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2931,30 +3108,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3213,7 +3390,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3473,6 +3650,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3490,42 +3699,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3543,26 +3752,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3572,7 +3781,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3580,17 +3789,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="371">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -412,6 +412,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -472,12 +478,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -1225,171 +1225,174 @@
     <t>Custom</t>
   </si>
   <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
+    <t>sample_indexing_kit</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
+  </si>
+  <si>
+    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
+  </si>
+  <si>
+    <t>sample_indexing_set</t>
+  </si>
+  <si>
+    <t>is_technical_replicate</t>
+  </si>
+  <si>
+    <t>expected_entity_capture_count</t>
+  </si>
+  <si>
+    <t>sequencing_reagent_kit</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>sequencing_read_format</t>
+  </si>
+  <si>
+    <t>transposition_reagent_kit</t>
+  </si>
+  <si>
+    <t>transposition_method</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002764</t>
+  </si>
+  <si>
+    <t>bulkATACseq</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0003089</t>
+  </si>
+  <si>
+    <t>sciATACseq</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0003104</t>
+  </si>
+  <si>
+    <t>sequencing_batch_id</t>
+  </si>
+  <si>
+    <t>capture_batch_id</t>
+  </si>
+  <si>
+    <t>preparation_instrument_vendor</t>
+  </si>
+  <si>
+    <t>HTX Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023734</t>
+  </si>
+  <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
-    <t>sample_indexing_kit</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
-  </si>
-  <si>
-    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
-  </si>
-  <si>
-    <t>sample_indexing_set</t>
-  </si>
-  <si>
-    <t>is_technical_replicate</t>
-  </si>
-  <si>
-    <t>expected_entity_capture_count</t>
-  </si>
-  <si>
-    <t>sequencing_reagent_kit</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
-    <t>sequencing_read_format</t>
-  </si>
-  <si>
-    <t>transposition_reagent_kit</t>
-  </si>
-  <si>
-    <t>transposition_method</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0002764</t>
-  </si>
-  <si>
-    <t>bulkATACseq</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0003089</t>
-  </si>
-  <si>
-    <t>sciATACseq</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0003104</t>
-  </si>
-  <si>
-    <t>sequencing_batch_id</t>
-  </si>
-  <si>
-    <t>capture_batch_id</t>
-  </si>
-  <si>
-    <t>preparation_instrument_vendor</t>
-  </si>
-  <si>
-    <t>HTX Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023734</t>
-  </si>
-  <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1483,7 +1486,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:49:49-07:00</t>
+    <t>2023-10-20T15:01:28-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1793,18 +1796,18 @@
         <v>331</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2845,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>324</v>
@@ -2922,15 +2925,15 @@
         <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2964,18 +2967,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
@@ -2996,66 +2999,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3108,30 +3111,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="372">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -715,12 +715,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -733,6 +727,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -1378,6 +1378,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1390,9 +1396,6 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1486,7 +1489,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T15:01:28-07:00</t>
+    <t>2023-10-20T19:59:35-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1796,18 +1799,18 @@
         <v>331</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2882,26 +2885,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -2914,26 +2917,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2967,18 +2970,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -2999,66 +3002,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3111,30 +3114,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -48,11 +48,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -1489,7 +1490,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T19:59:35-07:00</t>
+    <t>2023-10-27T18:08:35-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="374">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1046,7 +1046,7 @@
     <t>barcode_offset</t>
   </si>
   <si>
-    <t>0</t>
+    <t>0,38,76</t>
   </si>
   <si>
     <t>Not applicable</t>
@@ -1058,6 +1058,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>10,48,86</t>
+  </si>
+  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1097,6 +1100,9 @@
     <t>umi_offset</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>umi_read</t>
   </si>
   <si>
@@ -1490,7 +1496,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:08:35-07:00</t>
+    <t>2023-10-31T13:53:10-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1713,105 +1719,105 @@
         <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -1846,7 +1852,7 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$4</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -1855,7 +1861,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$2</formula1>
+      <formula1>'umi_offset'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -1950,10 +1956,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -1961,15 +1967,15 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1987,12 +1993,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -2002,17 +2008,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2022,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2030,12 +2036,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2053,10 +2064,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -2064,15 +2075,15 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2101,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -2105,12 +2116,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2128,42 +2139,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2181,10 +2192,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2202,10 +2213,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2223,10 +2234,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2244,18 +2255,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2574,50 +2585,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2635,10 +2646,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -2646,23 +2657,23 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2703,98 +2714,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2812,18 +2823,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
@@ -2831,7 +2842,7 @@
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2852,23 +2863,23 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2886,10 +2897,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -2905,23 +2916,23 @@
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
@@ -2934,10 +2945,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2966,23 +2977,23 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
@@ -3003,66 +3014,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3080,18 +3091,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3115,30 +3126,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +3799,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3814,6 +3825,11 @@
         <v>224</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="375">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1046,6 +1046,9 @@
     <t>barcode_offset</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>0,38,76</t>
   </si>
   <si>
@@ -1496,7 +1499,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-31T13:53:10-07:00</t>
+    <t>2023-10-31T14:33:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1719,105 +1722,105 @@
         <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1855,7 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$5</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -1956,26 +1959,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1993,32 +1996,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2036,17 +2039,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2064,26 +2067,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2101,27 +2104,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2139,42 +2142,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2192,10 +2195,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2213,10 +2216,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2234,10 +2237,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2255,18 +2258,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2585,50 +2588,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2646,34 +2649,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2714,98 +2717,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2823,26 +2826,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2863,23 +2866,23 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2897,10 +2900,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -2913,26 +2916,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
@@ -2945,10 +2948,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2974,26 +2977,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -3014,66 +3017,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3091,18 +3094,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3126,30 +3129,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3802,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3830,6 +3833,11 @@
         <v>225</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="374">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1103,9 +1103,6 @@
     <t>umi_offset</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>umi_read</t>
   </si>
   <si>
@@ -1499,7 +1496,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-31T14:33:15-07:00</t>
+    <t>2023-11-01T15:15:54-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1731,96 +1728,96 @@
         <v>239</v>
       </c>
       <c r="S1" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="T1" t="s" s="1">
         <v>241</v>
       </c>
-      <c r="T1" t="s" s="1">
-        <v>242</v>
-      </c>
       <c r="U1" t="s" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V1" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="W1" t="s" s="1">
         <v>257</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>258</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>259</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>260</v>
       </c>
-      <c r="Z1" t="s" s="1">
-        <v>261</v>
-      </c>
       <c r="AA1" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="AB1" t="s" s="1">
         <v>264</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>265</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>266</v>
       </c>
-      <c r="AD1" t="s" s="1">
-        <v>267</v>
-      </c>
       <c r="AE1" t="s" s="1">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF1" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="AG1" t="s" s="1">
         <v>275</v>
       </c>
-      <c r="AG1" t="s" s="1">
-        <v>276</v>
-      </c>
       <c r="AH1" t="s" s="1">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AI1" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
         <v>296</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>297</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>298</v>
       </c>
-      <c r="AL1" t="s" s="1">
-        <v>299</v>
-      </c>
       <c r="AM1" t="s" s="1">
+        <v>323</v>
+      </c>
+      <c r="AN1" t="s" s="1">
         <v>324</v>
       </c>
-      <c r="AN1" t="s" s="1">
+      <c r="AO1" t="s" s="1">
         <v>325</v>
       </c>
-      <c r="AO1" t="s" s="1">
-        <v>326</v>
-      </c>
       <c r="AP1" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
         <v>332</v>
       </c>
-      <c r="AQ1" t="s" s="1">
+      <c r="AR1" t="s" s="1">
         <v>333</v>
       </c>
-      <c r="AR1" t="s" s="1">
-        <v>334</v>
-      </c>
       <c r="AS1" t="s" s="1">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AT1" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="AU1" t="s" s="1">
         <v>364</v>
-      </c>
-      <c r="AU1" t="s" s="1">
-        <v>365</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1861,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$3</formula1>
+      <formula1>'umi_offset'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -2031,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2039,16 +2036,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2104,7 +2096,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -2119,12 +2111,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2142,42 +2134,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
         <v>251</v>
-      </c>
-      <c r="B3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
         <v>255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2195,10 +2187,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
         <v>262</v>
-      </c>
-      <c r="B1" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2216,10 +2208,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
         <v>262</v>
-      </c>
-      <c r="B1" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2237,10 +2229,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
         <v>268</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2258,18 +2250,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" t="s">
         <v>271</v>
-      </c>
-      <c r="B1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
         <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2588,50 +2580,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
         <v>279</v>
-      </c>
-      <c r="B2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
         <v>281</v>
-      </c>
-      <c r="B3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
         <v>283</v>
-      </c>
-      <c r="B4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
         <v>285</v>
-      </c>
-      <c r="B5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" t="s">
         <v>287</v>
-      </c>
-      <c r="B6" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2641,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
         <v>290</v>
-      </c>
-      <c r="B1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2">
@@ -2665,18 +2657,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
         <v>292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
         <v>294</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2717,98 +2709,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" t="s">
         <v>300</v>
-      </c>
-      <c r="B1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
         <v>302</v>
-      </c>
-      <c r="B2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
         <v>304</v>
-      </c>
-      <c r="B3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
         <v>306</v>
-      </c>
-      <c r="B4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
         <v>308</v>
-      </c>
-      <c r="B5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
         <v>310</v>
-      </c>
-      <c r="B6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
         <v>312</v>
-      </c>
-      <c r="B7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
         <v>314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" t="s">
         <v>316</v>
-      </c>
-      <c r="B9" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
         <v>318</v>
-      </c>
-      <c r="B10" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
         <v>320</v>
-      </c>
-      <c r="B11" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" t="s">
         <v>322</v>
-      </c>
-      <c r="B12" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2826,18 +2818,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -2866,23 +2858,23 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="s">
         <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
         <v>330</v>
-      </c>
-      <c r="B3" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2900,10 +2892,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
         <v>335</v>
-      </c>
-      <c r="B1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -2924,18 +2916,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
         <v>337</v>
-      </c>
-      <c r="B4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" t="s">
         <v>339</v>
-      </c>
-      <c r="B5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6">
@@ -2948,10 +2940,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
         <v>341</v>
-      </c>
-      <c r="B7" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2985,18 +2977,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s">
         <v>344</v>
-      </c>
-      <c r="B3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
         <v>346</v>
-      </c>
-      <c r="B4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -3017,66 +3009,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" t="s">
         <v>348</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
         <v>350</v>
-      </c>
-      <c r="B8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" t="s">
         <v>352</v>
-      </c>
-      <c r="B9" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" t="s">
         <v>354</v>
-      </c>
-      <c r="B10" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" t="s">
         <v>356</v>
-      </c>
-      <c r="B11" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" t="s">
         <v>358</v>
-      </c>
-      <c r="B12" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" t="s">
         <v>360</v>
-      </c>
-      <c r="B13" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" t="s">
         <v>362</v>
-      </c>
-      <c r="B14" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3094,18 +3086,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3129,30 +3121,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="376">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -407,12 +407,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -515,12 +509,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -539,6 +527,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -785,6 +779,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -839,6 +839,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -1496,7 +1502,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-01T15:15:54-07:00</t>
+    <t>2023-11-02T15:45:32-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1686,144 +1692,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="36">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1835,7 +1841,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1956,26 +1962,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1993,32 +1999,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2036,12 +2042,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2059,26 +2065,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2096,27 +2102,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2134,42 +2140,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2187,10 +2193,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2208,10 +2214,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2229,10 +2235,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2250,18 +2256,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2555,14 +2561,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2580,50 +2578,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2641,34 +2639,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2686,12 +2684,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2709,98 +2707,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2818,26 +2816,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2855,26 +2853,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2892,58 +2890,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2969,106 +2967,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3086,18 +3084,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3121,30 +3119,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3162,90 +3160,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3263,12 +3261,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3286,114 +3284,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3401,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3411,290 +3409,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3712,42 +3726,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3765,26 +3779,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3802,32 +3816,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="378">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1217,6 +1217,18 @@
     <t>library_preparation_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
   </si>
   <si>
@@ -1229,10 +1241,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
+    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN-120267</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
   </si>
   <si>
     <t>Custom</t>
@@ -1247,12 +1259,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
     <t>sample_indexing_kit</t>
   </si>
   <si>
@@ -1502,7 +1508,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:45:32-07:00</t>
+    <t>2023-11-07T20:05:53-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1779,51 +1785,51 @@
         <v>277</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1921,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AG2:AG1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$6</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AH2:AH1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
@@ -2570,7 +2576,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2622,6 +2628,14 @@
       </c>
       <c r="B6" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2639,10 +2653,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
@@ -2655,18 +2669,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2707,98 +2721,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2816,18 +2830,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
@@ -2856,23 +2870,23 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2890,10 +2904,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -2914,18 +2928,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -2938,10 +2952,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2975,18 +2989,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
@@ -3007,66 +3021,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3084,18 +3098,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3119,30 +3133,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="378">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -479,12 +479,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -497,6 +491,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -509,12 +509,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
     <t>RNAseq (bulk)</t>
   </si>
   <si>
@@ -533,12 +527,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -575,6 +563,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -1196,6 +1190,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0010050</t>
   </si>
   <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000065</t>
+  </si>
+  <si>
     <t>library_layout</t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:05:53-08:00</t>
+    <t>2023-11-22T10:19:45-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1698,82 +1698,82 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
       <c r="P1" t="s" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R1" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="T1" t="s" s="1">
         <v>241</v>
       </c>
-      <c r="S1" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>243</v>
-      </c>
       <c r="U1" t="s" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V1" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="X1" t="s" s="1">
         <v>258</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>259</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>260</v>
       </c>
-      <c r="Y1" t="s" s="1">
-        <v>261</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>262</v>
-      </c>
       <c r="AA1" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="AC1" t="s" s="1">
         <v>265</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>266</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>268</v>
       </c>
       <c r="AE1" t="s" s="1">
         <v>271</v>
@@ -1835,7 +1835,7 @@
   </sheetData>
   <dataValidations count="36">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1873,7 +1873,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$2</formula1>
+      <formula1>'umi_offset'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -1911,7 +1911,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AD2:AD1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_concentration_unit'!$A$1:$A$1</formula1>
+      <formula1>'library_concentration_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AE2:AE1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'library_layout'!$A$1:$A$2</formula1>
@@ -1968,26 +1968,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2005,32 +2005,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2040,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2048,12 +2048,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2071,26 +2076,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2108,27 +2113,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2146,42 +2151,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2199,10 +2204,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2220,10 +2225,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2238,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2241,9 +2246,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>269</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2283,7 +2296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2559,14 +2572,6 @@
       </c>
       <c r="B34" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2661,10 +2666,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -2698,12 +2703,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2846,10 +2851,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2912,18 +2917,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -2944,10 +2949,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -2973,18 +2978,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -3005,18 +3010,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -3174,90 +3179,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3275,12 +3280,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3298,114 +3303,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3423,306 +3428,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3740,42 +3745,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3793,26 +3798,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3830,32 +3835,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="380">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1292,60 +1292,72 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -1358,12 +1370,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
     <t>sequencing_read_format</t>
   </si>
   <si>
@@ -1508,7 +1514,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:19:45-08:00</t>
+    <t>2023-11-24T09:44:36-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1800,36 +1806,36 @@
         <v>302</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="AU2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1940,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AL2:AL1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$12</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AN2:AN1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'transposition_reagent_kit'!$A$1:$A$3</formula1>
@@ -2718,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,6 +2824,14 @@
       </c>
       <c r="B12" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2875,23 +2889,23 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2909,10 +2923,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
@@ -2933,18 +2947,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
@@ -2957,10 +2971,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2994,18 +3008,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -3026,66 +3040,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3138,30 +3152,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
+++ b/atacseq/v2.0.0/atacseq-v2.0.0.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="402">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -680,6 +680,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -722,6 +734,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -758,6 +782,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -791,6 +821,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -809,18 +845,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -845,6 +905,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -905,6 +971,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1403,12 +1475,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1514,7 +1580,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:44:36-08:00</t>
+    <t>2024-01-29T14:32:10-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1641,53 +1707,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="14.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="13.0546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="10.45703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="9.27734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="8.875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="17.390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="30.11328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="28.0625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="25.5859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="24.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="26.8671875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="25.70703125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="25.44140625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="24.28125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="13.09375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="32.83203125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="21.18359375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="19.3046875" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="19.66015625" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" style="37" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" style="38" width="28.66015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" style="39" width="22.09375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" style="41" width="23.6796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" style="42" width="20.54296875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" style="43" width="19.6484375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" style="44" width="16.19140625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" style="45" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" style="46" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" style="47" width="25.23046875" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" style="48" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="12.27734375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="11.26171875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="10.9140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="9.01953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="8.00390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.65625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="25.9765625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="20.4609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="24.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="21.0703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="23.17578125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="22.17578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="21.9453125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="20.9453125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="11.296875" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="28.32421875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="18.2734375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" style="37" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" style="38" width="24.72265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" style="39" width="19.05859375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="19.78125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" style="41" width="20.4296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" style="42" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" style="43" width="16.94921875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" style="44" width="13.96484375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" style="45" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" style="46" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" style="47" width="21.765625" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" style="48" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1713,129 +1779,129 @@
         <v>98</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
-      <c r="AU2" t="s">
-        <v>371</v>
+      <c r="AU2" t="s" s="48">
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1916,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1867,7 +1933,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_offset'!$A$1:$A$6</formula1>
@@ -1973,27 +2039,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
+      <c r="A3" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2010,33 +2076,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>234</v>
+      <c r="A1" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>236</v>
+      <c r="A4" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>237</v>
+      <c r="A5" t="s" s="0">
+        <v>261</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>238</v>
+      <c r="A6" t="s" s="0">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2053,18 +2119,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>236</v>
+      <c r="A3" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2081,27 +2147,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
+      <c r="A3" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2118,28 +2184,28 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>242</v>
+      <c r="A1" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>225</v>
+      <c r="A3" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>243</v>
+      <c r="A4" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>244</v>
+      <c r="A5" t="s" s="0">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2156,43 +2222,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" t="s">
-        <v>247</v>
+      <c r="A1" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>271</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" t="s">
-        <v>249</v>
+      <c r="A2" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
+      <c r="A3" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
+      <c r="A4" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>277</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" t="s">
-        <v>255</v>
+      <c r="A5" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2209,11 +2275,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" t="s">
-        <v>262</v>
+      <c r="A1" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2230,11 +2296,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" t="s">
-        <v>262</v>
+      <c r="A1" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2251,19 +2317,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" t="s">
-        <v>268</v>
+      <c r="A1" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>292</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" t="s">
-        <v>270</v>
+      <c r="A2" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2280,19 +2346,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" t="s">
-        <v>273</v>
+      <c r="A1" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>297</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="s">
-        <v>275</v>
+      <c r="A2" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2309,274 +2375,274 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -2594,59 +2660,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" t="s">
-        <v>279</v>
+      <c r="A1" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>303</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" t="s">
-        <v>281</v>
+      <c r="A2" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" t="s">
-        <v>283</v>
+      <c r="A3" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>307</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" t="s">
-        <v>285</v>
+      <c r="A4" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B5" t="s">
-        <v>287</v>
+      <c r="A5" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>311</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" t="s">
-        <v>289</v>
+      <c r="A6" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>313</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" t="s">
-        <v>291</v>
+      <c r="A7" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2663,35 +2729,35 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" t="s">
-        <v>294</v>
+      <c r="A1" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" t="s">
-        <v>296</v>
+      <c r="A3" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" t="s">
-        <v>298</v>
+      <c r="A4" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2708,12 +2774,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -2731,107 +2797,107 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" t="s">
-        <v>304</v>
+      <c r="A1" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>328</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" t="s">
-        <v>306</v>
+      <c r="A2" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>330</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" t="s">
-        <v>308</v>
+      <c r="A3" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>332</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" t="s">
-        <v>310</v>
+      <c r="A4" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>334</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" t="s">
-        <v>312</v>
+      <c r="A5" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" t="s">
-        <v>314</v>
+      <c r="A6" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>338</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B7" t="s">
-        <v>316</v>
+      <c r="A7" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>340</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" t="s">
-        <v>318</v>
+      <c r="A8" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>342</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" t="s">
-        <v>320</v>
+      <c r="A9" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>344</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" t="s">
-        <v>322</v>
+      <c r="A10" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>346</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" t="s">
-        <v>324</v>
+      <c r="A11" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>348</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B12" t="s">
-        <v>326</v>
+      <c r="A12" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>350</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" t="s">
-        <v>328</v>
+      <c r="A13" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2848,27 +2914,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
+      <c r="A1" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>307</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>279</v>
+      <c r="A2" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>303</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2885,27 +2951,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>332</v>
+      <c r="B1" t="s" s="0">
+        <v>356</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" t="s">
-        <v>334</v>
+      <c r="A2" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>358</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" t="s">
-        <v>336</v>
+      <c r="A3" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2922,59 +2988,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" t="s">
-        <v>341</v>
+      <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
+      <c r="A2" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" t="s">
-        <v>343</v>
+      <c r="A4" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>365</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B5" t="s">
-        <v>345</v>
+      <c r="A5" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>367</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
+      <c r="A6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>128</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B7" t="s">
-        <v>347</v>
+      <c r="A7" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -2991,115 +3057,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
+      <c r="A1" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" t="s">
-        <v>350</v>
+      <c r="A3" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>372</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" t="s">
-        <v>352</v>
+      <c r="A4" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>374</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" t="s">
-        <v>183</v>
+      <c r="A5" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>185</v>
+      <c r="A6" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" t="s">
-        <v>354</v>
+      <c r="A7" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>376</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" t="s">
-        <v>356</v>
+      <c r="A8" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>378</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" t="s">
-        <v>358</v>
+      <c r="A9" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>380</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B10" t="s">
-        <v>360</v>
+      <c r="A10" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>382</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B11" t="s">
-        <v>362</v>
+      <c r="A11" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>384</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B12" t="s">
-        <v>364</v>
+      <c r="A12" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>386</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" t="s">
-        <v>366</v>
+      <c r="A13" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>388</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" t="s">
-        <v>368</v>
+      <c r="A14" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3116,19 +3182,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
+      <c r="A1" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>307</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>279</v>
+      <c r="A2" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3144,38 +3210,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="79.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.8671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" t="s">
-        <v>378</v>
+      <c r="A1" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D2" t="s">
-        <v>379</v>
+      <c r="A2" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3192,90 +3258,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>94</v>
       </c>
     </row>
@@ -3293,12 +3359,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -3309,122 +3375,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3434,314 +3540,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
+      <c r="A1" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+      <c r="A2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
+      <c r="A3" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
+      <c r="A4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
+      <c r="A5" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
+      <c r="A6" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
+      <c r="A7" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
+      <c r="A8" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="A9" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
+      <c r="A10" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
+      <c r="A11" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
+      <c r="A12" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="A13" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
+      <c r="A14" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
+      <c r="A15" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
+      <c r="A16" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
+      <c r="A17" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
+      <c r="A18" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
+      <c r="A19" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
+      <c r="A20" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
+      <c r="A21" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
+      <c r="A22" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
+      <c r="A23" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
+      <c r="A24" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
+      <c r="A25" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" t="s">
-        <v>179</v>
+      <c r="A26" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
+      <c r="A27" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
+      <c r="A28" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
+      <c r="A29" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
+      <c r="A30" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
+      <c r="A31" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
+      <c r="A32" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
+      <c r="A33" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
+      <c r="A34" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>197</v>
+      <c r="A35" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
+      <c r="A36" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
+      <c r="A37" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
+      <c r="A38" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3758,43 +3920,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
+      <c r="A4" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
+      <c r="A5" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3811,27 +3973,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" t="s">
-        <v>209</v>
+      <c r="A1" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
+      <c r="A2" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>213</v>
+      <c r="A3" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3848,33 +4010,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
+      <c r="A2" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>224</v>
+      <c r="A4" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>225</v>
+      <c r="A5" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>226</v>
+      <c r="A6" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
